--- a/ENG/data/service.xlsx
+++ b/ENG/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Documentos (CC etc)\CV\CV R\JDL_CV-master\ENG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9040BA-3AC8-42B0-8960-44282A6ECB5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996514D9-CB0C-4726-88B9-1BBFF27BF37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>what</t>
   </si>
@@ -98,13 +98,28 @@
   </si>
   <si>
     <t>Journals</t>
+  </si>
+  <si>
+    <t>Guest Editor</t>
+  </si>
+  <si>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>Philosophical Transactions of the Royal Society B</t>
+  </si>
+  <si>
+    <t>Theme Issue "Voice modulation: from origin and mechanism to social impact"</t>
+  </si>
+  <si>
+    <t>Summa Psicológica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,12 +253,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -589,51 +598,53 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,7 +660,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -948,19 +959,18 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.88671875" customWidth="1"/>
-    <col min="5" max="5" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -977,103 +987,116 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
       <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ENG/data/service.xlsx
+++ b/ENG/data/service.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996514D9-CB0C-4726-88B9-1BBFF27BF37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B67FD65-DE02-4216-88DD-356DC437BC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>what</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Summa Psicológica</t>
+  </si>
+  <si>
+    <t>Edited with Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman, &amp; Jaroslava Varella Valentova</t>
   </si>
 </sst>
 </file>
@@ -956,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,47 +1008,44 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1069,33 +1069,41 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
         <v>9</v>
       </c>
     </row>

--- a/ENG/data/service.xlsx
+++ b/ENG/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B67FD65-DE02-4216-88DD-356DC437BC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275DF182-81A7-4C8F-9C50-A24553D9D0B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>what</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Edited with Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman, &amp; Jaroslava Varella Valentova</t>
+  </si>
+  <si>
+    <t>Evolution and Human Behavior</t>
   </si>
 </sst>
 </file>
@@ -959,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,11 +1060,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,33 +1077,41 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
     </row>

--- a/ENG/data/service.xlsx
+++ b/ENG/data/service.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275DF182-81A7-4C8F-9C50-A24553D9D0B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A9D57C-6BFF-47CE-BE5B-D79DFA4AB95B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>what</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Evolution and Human Behavior</t>
+  </si>
+  <si>
+    <t>Scientific Reports</t>
   </si>
 </sst>
 </file>
@@ -962,17 +965,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1065,11 +1068,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,33 +1085,41 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>9</v>
       </c>
     </row>

--- a/ENG/data/service.xlsx
+++ b/ENG/data/service.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A9D57C-6BFF-47CE-BE5B-D79DFA4AB95B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AAB8A4-9582-4DA0-8EBF-6521DBFE071B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>what</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>Perception</t>
   </si>
 </sst>
 </file>
@@ -965,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +979,7 @@
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="107.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1081,11 +1084,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1093,33 +1093,41 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>9</v>
       </c>
     </row>

--- a/ENG/data/service.xlsx
+++ b/ENG/data/service.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AAB8A4-9582-4DA0-8EBF-6521DBFE071B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346BD401-0749-488B-BA34-A226B4C477DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>what</t>
   </si>
@@ -46,9 +46,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Colciencias</t>
-  </si>
-  <si>
     <t>Universidad Nacional de Colombia</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>Summa Psicológica</t>
   </si>
   <si>
-    <t>Edited with Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman, &amp; Jaroslava Varella Valentova</t>
-  </si>
-  <si>
     <t>Evolution and Human Behavior</t>
   </si>
   <si>
@@ -125,6 +119,15 @@
   </si>
   <si>
     <t>Perception</t>
+  </si>
+  <si>
+    <t>Cortex</t>
+  </si>
+  <si>
+    <t>Edited by Juan David Leongómez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman, &amp; Jaroslava Varella Valentova</t>
+  </si>
+  <si>
+    <t>MinCiencias</t>
   </si>
 </sst>
 </file>
@@ -968,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,24 +1004,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1026,35 +1029,35 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,38 +1065,35 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,34 +1101,42 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
-        <v>30</v>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ENG/data/service.xlsx
+++ b/ENG/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346BD401-0749-488B-BA34-A226B4C477DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCECDABF-4270-4D38-AC29-9A06DAAD3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27870" yWindow="3465" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>what</t>
   </si>
@@ -124,10 +124,13 @@
     <t>Cortex</t>
   </si>
   <si>
-    <t>Edited by Juan David Leongómez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman, &amp; Jaroslava Varella Valentova</t>
-  </si>
-  <si>
     <t>MinCiencias</t>
+  </si>
+  <si>
+    <t>Evolutionary Psychology</t>
+  </si>
+  <si>
+    <t>Edited by Juan David Leongomez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman, &amp; Jaroslava Varella Valentova</t>
   </si>
 </sst>
 </file>
@@ -971,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1024,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1105,37 +1108,42 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>8</v>
       </c>
     </row>

--- a/ENG/data/service.xlsx
+++ b/ENG/data/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCECDABF-4270-4D38-AC29-9A06DAAD3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ECB687-4FBC-48B3-AF0A-7025CA8BD28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27870" yWindow="3465" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>what</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Edited by Juan David Leongomez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman, &amp; Jaroslava Varella Valentova</t>
+  </si>
+  <si>
+    <t>PLOS ONE</t>
   </si>
 </sst>
 </file>
@@ -974,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,16 +1062,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1100,50 +1103,55 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>8</v>
       </c>
     </row>
